--- a/public/assets/excel/examplePale.xlsx
+++ b/public/assets/excel/examplePale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27040" yWindow="4940" windowWidth="13300" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="12340" yWindow="3200" windowWidth="13300" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -385,7 +385,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>42783</v>
+        <v>42736</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -396,7 +396,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>42784</v>
+        <v>42737</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -407,7 +407,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>42785</v>
+        <v>42738</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -418,7 +418,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>42786</v>
+        <v>42739</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>42787</v>
+        <v>42740</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>42788</v>
+        <v>42741</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -451,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>42789</v>
+        <v>42742</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>42790</v>
+        <v>42743</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -473,11 +473,92 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>42791</v>
+        <v>42744</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/excel/examplePale.xlsx
+++ b/public/assets/excel/examplePale.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Fecha</t>
   </si>
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -388,7 +388,7 @@
         <v>42736</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -399,85 +399,29 @@
         <v>42737</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42738</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42739</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42740</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>42741</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>42742</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>42743</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>42744</v>
-      </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
@@ -538,27 +482,6 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
